--- a/Documentacion/Plan de Calidad.xlsx
+++ b/Documentacion/Plan de Calidad.xlsx
@@ -414,6 +414,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,66 +490,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,30 +810,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
@@ -843,13 +843,13 @@
       <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -862,13 +862,13 @@
         <v>42</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -879,11 +879,11 @@
         <v>42</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -894,13 +894,13 @@
         <v>12</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="31"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="37">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -913,13 +913,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
@@ -930,13 +930,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="38">
         <v>3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -949,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
@@ -966,13 +966,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="35"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="35">
         <v>4</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -985,13 +985,13 @@
         <v>19</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1002,11 +1002,11 @@
         <v>19</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
@@ -1017,11 +1017,11 @@
         <v>19</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1032,13 +1032,13 @@
         <v>19</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>5</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1056,10 +1056,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="21">
         <v>6</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1072,13 +1072,13 @@
         <v>30</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="12" t="s">
         <v>31</v>
       </c>
@@ -1089,11 +1089,11 @@
         <v>30</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1104,13 +1104,13 @@
         <v>30</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="41"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
+      <c r="A18" s="19">
         <v>7</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -1123,13 +1123,13 @@
         <v>38</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="14" t="s">
         <v>43</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="43"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1165,16 +1165,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B3:B5"/>
@@ -1183,11 +1178,16 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
